--- a/popgen/2017_11_02 Pop Gen all sites ele, kop, mor.xlsx
+++ b/popgen/2017_11_02 Pop Gen all sites ele, kop, mor.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmc04\Documents\GitHub\wingproj\popgen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgc\GitHub\wingproj\popgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="5670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="5670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All sites, koppen" sheetId="1" r:id="rId1"/>
-    <sheet name="All sites, morrone" sheetId="2" r:id="rId2"/>
+    <sheet name="All sites, el nino years" sheetId="3" r:id="rId2"/>
+    <sheet name="All sites, morrone" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -423,7 +424,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -614,7 +615,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -925,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -935,27 +936,27 @@
       <selection activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="31"/>
-    <col min="5" max="5" width="12.85546875" style="31" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.265625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="6.1328125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="31"/>
+    <col min="5" max="5" width="12.86328125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="14.265625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" style="31" customWidth="1"/>
     <col min="8" max="8" width="18" style="31" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="10.265625" style="31" customWidth="1"/>
     <col min="10" max="10" width="13" style="31" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="31" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="31" customWidth="1"/>
-    <col min="15" max="16" width="19.28515625" style="31" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="31"/>
+    <col min="11" max="11" width="10.73046875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="9.265625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="15.59765625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="12.1328125" style="31" customWidth="1"/>
+    <col min="15" max="16" width="19.265625" style="31" customWidth="1"/>
+    <col min="17" max="17" width="9.1328125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="43.5">
+    <row r="1" spans="1:17" ht="41.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2463,30 +2464,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A488431-F671-47F9-AD77-5ED3936D82E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="31"/>
-    <col min="5" max="5" width="12.85546875" style="31" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.265625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="6.1328125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="31"/>
+    <col min="5" max="5" width="12.86328125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="14.265625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="22.265625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.59765625" style="31" customWidth="1"/>
     <col min="9" max="9" width="22" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>

--- a/popgen/2017_11_02 Pop Gen all sites ele, kop, mor.xlsx
+++ b/popgen/2017_11_02 Pop Gen all sites ele, kop, mor.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgc\GitHub\wingproj\popgen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgc\Documents\GitHub\wingproj\popgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="5670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="5670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All sites, koppen" sheetId="1" r:id="rId1"/>
@@ -932,31 +932,31 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.265625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="14.265625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="6.1328125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="31"/>
-    <col min="5" max="5" width="12.86328125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="14.265625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="19.59765625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="31"/>
+    <col min="5" max="5" width="12.85546875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="31" customWidth="1"/>
     <col min="8" max="8" width="18" style="31" customWidth="1"/>
-    <col min="9" max="9" width="10.265625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="31" customWidth="1"/>
     <col min="10" max="10" width="13" style="31" customWidth="1"/>
-    <col min="11" max="11" width="10.73046875" style="31" customWidth="1"/>
-    <col min="12" max="12" width="9.265625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="15.59765625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="12.1328125" style="31" customWidth="1"/>
-    <col min="15" max="16" width="19.265625" style="31" customWidth="1"/>
-    <col min="17" max="17" width="9.1328125" style="31"/>
+    <col min="11" max="11" width="10.7109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="31" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="31" customWidth="1"/>
+    <col min="15" max="16" width="19.28515625" style="31" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="41.25">
+    <row r="1" spans="1:17" ht="43.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2467,11 +2467,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A488431-F671-47F9-AD77-5ED3936D82E9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2488,20 +2488,20 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.265625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="14.265625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="6.1328125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="31"/>
-    <col min="5" max="5" width="12.86328125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="14.265625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="22.265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.59765625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="31"/>
+    <col min="5" max="5" width="12.85546875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" style="31" customWidth="1"/>
     <col min="9" max="9" width="22" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="29.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
